--- a/1Rivet/Internship Roadmap 2023.xlsx
+++ b/1Rivet/Internship Roadmap 2023.xlsx
@@ -710,12 +710,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,14 +734,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -837,20 +829,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -872,9 +850,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,6 +913,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -926,11 +928,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -943,47 +958,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1019,13 +997,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,25 +1015,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,13 +1063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,55 +1087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,13 +1111,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,25 +1165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,6 +1189,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1272,32 +1276,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1307,148 +1285,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1463,54 +1441,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="31" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="31" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1528,24 +1503,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1554,7 +1529,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1896,7 +1871,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
@@ -1917,10 +1892,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" ht="39" customHeight="1" spans="2:5">
       <c r="B5" s="7">
@@ -1929,10 +1904,10 @@
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1941,10 +1916,10 @@
         <v>1.2</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1955,22 +1930,22 @@
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>2</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="38"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" ht="51.6" customHeight="1" spans="2:5">
       <c r="B9" s="7">
@@ -1979,26 +1954,26 @@
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="46.8" customHeight="1" spans="2:5">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="39" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="38" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="48.6" customHeight="1" spans="2:5">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="39" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="38" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2009,30 +1984,30 @@
       <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="33" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="31">
+      <c r="B14" s="30">
         <v>2.3</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2083,7 +2058,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
@@ -2107,19 +2082,19 @@
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="31">
+      <c r="B5" s="30">
         <v>1.1</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2127,11 +2102,11 @@
       <c r="B6" s="7">
         <v>1.2</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2139,51 +2114,51 @@
       <c r="B7" s="7">
         <v>1.3</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>1.4</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="31">
+      <c r="B9" s="30">
         <v>1.5</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="31">
+      <c r="B10" s="30">
         <v>1.6</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2195,73 +2170,73 @@
       <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="31">
+      <c r="B12" s="30">
         <v>2.1</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="31">
+      <c r="B13" s="30">
         <v>2.3</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="31">
+      <c r="B14" s="30">
         <v>2.4</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="31">
+      <c r="B15" s="30">
         <v>2.5</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="31">
+      <c r="B16" s="30">
         <v>2.6</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2308,274 +2283,274 @@
   </cols>
   <sheetData>
     <row r="2" ht="18" spans="2:5">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="16.2" customHeight="1" spans="2:5">
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" ht="17.4" customHeight="1" spans="2:5">
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>1.1</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>1.2</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" ht="63.6" customHeight="1" spans="2:5">
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>1.3</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" ht="37.8" customHeight="1" spans="2:5">
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>1.4</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" ht="30.6" customHeight="1" spans="2:5">
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>1.5</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>1.6</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>1.7</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>1.8</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>1.9</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>2.1</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>2.2</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>2.3</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>2.4</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>2.5</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>2.6</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>2.7</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>2.8</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <v>2.9</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <v>3.1</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2620,8 +2595,8 @@
   <sheetPr/>
   <dimension ref="B2:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2638,7 +2613,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="14"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="2" t="s">
@@ -2664,7 +2639,7 @@
       <c r="D4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="7">
@@ -2674,7 +2649,7 @@
       <c r="D5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2686,7 +2661,7 @@
       <c r="D6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2698,7 +2673,7 @@
       <c r="D7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2706,7 +2681,7 @@
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2715,20 +2690,20 @@
         <v>1.3</v>
       </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="10" ht="51" customHeight="1" spans="2:5">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="7"/>
@@ -2743,10 +2718,10 @@
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="7">
@@ -2756,7 +2731,7 @@
       <c r="D13" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2768,7 +2743,7 @@
       <c r="D14" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="15" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2780,7 +2755,7 @@
       <c r="D15" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2792,7 +2767,7 @@
       <c r="D16" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2809,20 +2784,20 @@
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="7">
         <v>3.1</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="15" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2831,10 +2806,10 @@
         <v>3.2</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2851,20 +2826,20 @@
       <c r="C22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="7">
         <v>4.1</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2873,10 +2848,10 @@
         <v>4.2</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2893,10 +2868,10 @@
       <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="15"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="7">
@@ -2906,7 +2881,7 @@
       <c r="D27" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2918,7 +2893,7 @@
       <c r="D28" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="15" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2935,10 +2910,10 @@
       <c r="C30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="7">
@@ -2948,7 +2923,7 @@
       <c r="D31" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2960,7 +2935,7 @@
       <c r="D32" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="15" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2977,10 +2952,10 @@
       <c r="C34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="14"/>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="7">
@@ -2990,7 +2965,7 @@
       <c r="D35" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="15" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3002,7 +2977,7 @@
       <c r="D36" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="15" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3019,10 +2994,10 @@
       <c r="C38" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="15"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="7">
@@ -3032,7 +3007,7 @@
       <c r="D39" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3044,7 +3019,7 @@
       <c r="D40" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3052,7 +3027,7 @@
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3064,7 +3039,7 @@
       <c r="D42" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="15" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3072,7 +3047,7 @@
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3089,10 +3064,10 @@
       <c r="C45" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="7">
@@ -3102,7 +3077,7 @@
       <c r="D46" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="15" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3110,7 +3085,7 @@
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="15" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3122,7 +3097,7 @@
       <c r="D48" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="15" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3139,10 +3114,10 @@
       <c r="C50" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="15"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="7">
@@ -3152,7 +3127,7 @@
       <c r="D51" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="15" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3164,7 +3139,7 @@
       <c r="D52" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="15" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3181,10 +3156,10 @@
       <c r="C54" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="15"/>
+      <c r="E54" s="14"/>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="7">
@@ -3194,7 +3169,7 @@
       <c r="D55" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="15" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3206,7 +3181,7 @@
       <c r="D56" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="15" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3218,7 +3193,7 @@
       <c r="D57" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="15" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3227,18 +3202,18 @@
         <v>11.4</v>
       </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="15" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="16" t="s">
+      <c r="D59" s="10"/>
+      <c r="E59" s="15" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3375,7 +3350,7 @@
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3400,7 +3375,7 @@
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3409,7 +3384,7 @@
         <v>3.1</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3418,7 +3393,7 @@
         <v>3.2</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3427,7 +3402,7 @@
         <v>3.3</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3452,7 +3427,7 @@
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="6" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3461,7 +3436,7 @@
         <v>4.1</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3470,7 +3445,7 @@
         <v>4.2</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="11" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3513,7 +3488,7 @@
       <c r="C24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="6" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3547,7 +3522,7 @@
       <c r="C28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="6" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3599,7 +3574,7 @@
       <c r="C34" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3624,7 +3599,7 @@
       <c r="C37" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="6" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3640,7 +3615,7 @@
       <c r="C39" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3656,7 +3631,7 @@
       <c r="C41" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="6" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3681,7 +3656,7 @@
       <c r="C44" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="6" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3715,7 +3690,7 @@
       <c r="C48" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3749,7 +3724,7 @@
       <c r="C52" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="6" t="s">
         <v>216</v>
       </c>
     </row>

--- a/1Rivet/Internship Roadmap 2023.xlsx
+++ b/1Rivet/Internship Roadmap 2023.xlsx
@@ -710,12 +710,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,6 +784,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -829,6 +837,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -842,17 +865,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -866,9 +880,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,6 +892,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -922,28 +943,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -951,14 +951,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,48 +1005,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1051,7 +1017,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,13 +1047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,7 +1065,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,61 +1137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,7 +1155,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1188,8 +1196,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1219,214 +1290,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1470,22 +1478,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1503,7 +1514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1529,7 +1540,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1895,7 +1906,7 @@
       <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" ht="39" customHeight="1" spans="2:5">
       <c r="B5" s="7">
@@ -1904,10 +1915,10 @@
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="36" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1916,10 +1927,10 @@
         <v>1.2</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="36" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1930,22 +1941,22 @@
       <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="36">
+      <c r="B8" s="37">
         <v>2</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="37"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" ht="51.6" customHeight="1" spans="2:5">
       <c r="B9" s="7">
@@ -1957,7 +1968,7 @@
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="39" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1965,7 +1976,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="39" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1973,7 +1984,7 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="39" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1987,7 +1998,7 @@
       <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1995,19 +2006,19 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="30">
+      <c r="B14" s="31">
         <v>2.3</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="33" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2082,19 +2093,19 @@
       <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="30">
+      <c r="B5" s="31">
         <v>1.1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="33" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2102,11 +2113,11 @@
       <c r="B6" s="7">
         <v>1.2</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2114,42 +2125,42 @@
       <c r="B7" s="7">
         <v>1.3</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="32"/>
+      <c r="D7" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="30">
+      <c r="B8" s="31">
         <v>1.4</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="30">
+      <c r="B9" s="31">
         <v>1.5</v>
       </c>
-      <c r="C9" s="31"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="30">
+      <c r="B10" s="31">
         <v>1.6</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2158,7 +2169,7 @@
       <c r="D10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="33" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2170,10 +2181,10 @@
       <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="29"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="30">
+      <c r="B12" s="31">
         <v>2.1</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2182,12 +2193,12 @@
       <c r="D12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="30">
+      <c r="B13" s="31">
         <v>2.3</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2196,47 +2207,47 @@
       <c r="D13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="30">
+      <c r="B14" s="31">
         <v>2.4</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="30">
+      <c r="B15" s="31">
         <v>2.5</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="30">
+      <c r="B16" s="31">
         <v>2.6</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="31" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2283,45 +2294,45 @@
   </cols>
   <sheetData>
     <row r="2" ht="18" spans="2:5">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="16.2" customHeight="1" spans="2:5">
-      <c r="B4" s="21">
+      <c r="B4" s="22">
         <v>1</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="24"/>
     </row>
     <row r="5" ht="17.4" customHeight="1" spans="2:5">
-      <c r="B5" s="24">
+      <c r="B5" s="25">
         <v>1.1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -2329,11 +2340,11 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="24">
+      <c r="B6" s="25">
         <v>1.2</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -2341,11 +2352,11 @@
       </c>
     </row>
     <row r="7" ht="63.6" customHeight="1" spans="2:5">
-      <c r="B7" s="27">
+      <c r="B7" s="28">
         <v>1.3</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="29" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -2353,13 +2364,13 @@
       </c>
     </row>
     <row r="8" ht="37.8" customHeight="1" spans="2:5">
-      <c r="B8" s="24">
+      <c r="B8" s="25">
         <v>1.4</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>62</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -2367,11 +2378,11 @@
       </c>
     </row>
     <row r="9" ht="30.6" customHeight="1" spans="2:5">
-      <c r="B9" s="24">
+      <c r="B9" s="25">
         <v>1.5</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="28"/>
+      <c r="D9" s="27" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -2379,13 +2390,13 @@
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="24">
+      <c r="B10" s="25">
         <v>1.6</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -2393,11 +2404,11 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="24">
+      <c r="B11" s="25">
         <v>1.7</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="27" t="s">
         <v>68</v>
       </c>
       <c r="E11" s="15" t="s">
@@ -2405,11 +2416,11 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="24">
+      <c r="B12" s="25">
         <v>1.8</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="27" t="s">
         <v>70</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -2417,11 +2428,11 @@
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="24">
+      <c r="B13" s="25">
         <v>1.9</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E13" s="15" t="s">
@@ -2429,11 +2440,11 @@
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="24">
+      <c r="B14" s="25">
         <v>2.1</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="27" t="s">
         <v>74</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -2441,11 +2452,11 @@
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="24">
+      <c r="B15" s="25">
         <v>2.2</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="27" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="15" t="s">
@@ -2453,13 +2464,13 @@
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="24">
+      <c r="B16" s="25">
         <v>2.3</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="27" t="s">
         <v>78</v>
       </c>
       <c r="E16" s="15" t="s">
@@ -2467,11 +2478,11 @@
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="24">
+      <c r="B17" s="25">
         <v>2.4</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="27" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -2479,11 +2490,11 @@
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="24">
+      <c r="B18" s="25">
         <v>2.5</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="27" t="s">
         <v>82</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -2491,13 +2502,13 @@
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="24">
+      <c r="B19" s="25">
         <v>2.6</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="27" t="s">
         <v>84</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -2505,11 +2516,11 @@
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="24">
+      <c r="B20" s="25">
         <v>2.7</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="27" t="s">
         <v>86</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -2517,11 +2528,11 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="24">
+      <c r="B21" s="25">
         <v>2.8</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="26" t="s">
+      <c r="C21" s="28"/>
+      <c r="D21" s="27" t="s">
         <v>88</v>
       </c>
       <c r="E21" s="15" t="s">
@@ -2529,13 +2540,13 @@
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="24">
+      <c r="B22" s="25">
         <v>2.9</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="27" t="s">
         <v>90</v>
       </c>
       <c r="E22" s="15" t="s">
@@ -2543,11 +2554,11 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="24">
+      <c r="B23" s="25">
         <v>3.1</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="27" t="s">
         <v>92</v>
       </c>
       <c r="E23" s="15" t="s">
@@ -2595,8 +2606,8 @@
   <sheetPr/>
   <dimension ref="B2:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3077,7 +3088,7 @@
       <c r="D46" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="17" t="s">
         <v>156</v>
       </c>
     </row>
